--- a/data/excel/२०२५/०४/२७.xlsx
+++ b/data/excel/२०२५/०४/२७.xlsx
@@ -16,6 +16,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
     <t>Max Price</t>
   </si>
   <si>
@@ -25,13 +34,13 @@
     <t>Avg Price</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Unit</t>
+    <t>२०२५-०४-२७</t>
+  </si>
+  <si>
+    <t>गोलभेडा ठूलो(नेपाली)</t>
+  </si>
+  <si>
+    <t>के.जी.</t>
   </si>
   <si>
     <t>४०.००</t>
@@ -43,15 +52,6 @@
     <t>३५.००</t>
   </si>
   <si>
-    <t>२०२५-०४-२७</t>
-  </si>
-  <si>
-    <t>गोलभेडा ठूलो(नेपाली)</t>
-  </si>
-  <si>
-    <t>के.जी.</t>
-  </si>
-  <si>
     <t>गोलभेडा ठूलो(भारतीय)</t>
   </si>
   <si>
@@ -67,6 +67,9 @@
     <t>५५.००</t>
   </si>
   <si>
+    <t>गोलभेडा सानो(लोकल)</t>
+  </si>
+  <si>
     <t>२५.००</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
     <t>२२.६७</t>
   </si>
   <si>
-    <t>गोलभेडा सानो(लोकल)</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(तराई)</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>३३.००</t>
   </si>
   <si>
+    <t>३१.००</t>
+  </si>
+  <si>
     <t>आलु रातो(भारतीय)</t>
   </si>
   <si>
-    <t>३१.००</t>
+    <t>प्याज सुकेको (भारतीय)</t>
+  </si>
+  <si>
+    <t>३८.००</t>
+  </si>
+  <si>
+    <t>३६.००</t>
   </si>
   <si>
     <t>३७.००</t>
   </si>
   <si>
-    <t>प्याज सुकेको (भारतीय)</t>
-  </si>
-  <si>
-    <t>३८.००</t>
-  </si>
-  <si>
-    <t>३६.००</t>
-  </si>
-  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
@@ -130,21 +130,21 @@
     <t>गाजर(तराई)</t>
   </si>
   <si>
+    <t>बन्दा(लोकल)</t>
+  </si>
+  <si>
     <t>१०.००</t>
   </si>
   <si>
     <t>१२.३३</t>
   </si>
   <si>
-    <t>बन्दा(लोकल)</t>
+    <t>१७.६७</t>
   </si>
   <si>
     <t>बन्दा(नरिवल)</t>
   </si>
   <si>
-    <t>१७.६७</t>
-  </si>
-  <si>
     <t>२२.५०</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>मूला सेतो(लोकल)</t>
   </si>
   <si>
+    <t>सेतो मूला(हाइब्रीड)</t>
+  </si>
+  <si>
     <t>२७.५०</t>
   </si>
   <si>
-    <t>सेतो मूला(हाइब्रीड)</t>
-  </si>
-  <si>
     <t>भन्टा लाम्चो</t>
   </si>
   <si>
@@ -229,12 +229,12 @@
     <t>घिरौला</t>
   </si>
   <si>
+    <t>६५.००</t>
+  </si>
+  <si>
     <t>झिगूनी</t>
   </si>
   <si>
-    <t>६५.००</t>
-  </si>
-  <si>
     <t>फर्सी पाकेको</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>सलगम</t>
   </si>
   <si>
+    <t>भिण्डी</t>
+  </si>
+  <si>
     <t>७५.००</t>
   </si>
   <si>
-    <t>भिण्डी</t>
-  </si>
-  <si>
     <t>सखरखण्ड</t>
   </si>
   <si>
@@ -295,6 +295,9 @@
     <t>तरुल</t>
   </si>
   <si>
+    <t>२१०.००</t>
+  </si>
+  <si>
     <t>च्याउ(कन्य)</t>
   </si>
   <si>
@@ -304,21 +307,18 @@
     <t>२००.००</t>
   </si>
   <si>
-    <t>२१०.००</t>
+    <t>३००.००</t>
+  </si>
+  <si>
+    <t>३२२.००</t>
+  </si>
+  <si>
+    <t>च्याउ(डल्ले)</t>
   </si>
   <si>
     <t>३५०.००</t>
   </si>
   <si>
-    <t>३००.००</t>
-  </si>
-  <si>
-    <t>३२२.००</t>
-  </si>
-  <si>
-    <t>च्याउ(डल्ले)</t>
-  </si>
-  <si>
     <t>कुरीलो</t>
   </si>
   <si>
@@ -340,15 +340,15 @@
     <t>सजिवन</t>
   </si>
   <si>
+    <t>२७७.५०</t>
+  </si>
+  <si>
     <t>कोइरालो</t>
   </si>
   <si>
     <t>२५०.००</t>
   </si>
   <si>
-    <t>२७७.५०</t>
-  </si>
-  <si>
     <t>रातो बन्दा</t>
   </si>
   <si>
@@ -376,39 +376,39 @@
     <t>सौफको साग</t>
   </si>
   <si>
+    <t>२२७.५०</t>
+  </si>
+  <si>
     <t>पुदीना</t>
   </si>
   <si>
-    <t>२२७.५०</t>
-  </si>
-  <si>
     <t>गान्टे मूला</t>
   </si>
   <si>
+    <t>१६०.००</t>
+  </si>
+  <si>
+    <t>१६५.००</t>
+  </si>
+  <si>
+    <t>इमली</t>
+  </si>
+  <si>
     <t>१७०.००</t>
   </si>
   <si>
-    <t>१६०.००</t>
-  </si>
-  <si>
-    <t>१६५.००</t>
-  </si>
-  <si>
-    <t>इमली</t>
-  </si>
-  <si>
     <t>तामा</t>
   </si>
   <si>
+    <t>तोफु</t>
+  </si>
+  <si>
     <t>११०.००</t>
   </si>
   <si>
     <t>११५.००</t>
   </si>
   <si>
-    <t>तोफु</t>
-  </si>
-  <si>
     <t>गुन्दुक</t>
   </si>
   <si>
@@ -427,15 +427,15 @@
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
+    <t>केरा</t>
+  </si>
+  <si>
+    <t>दर्जन</t>
+  </si>
+  <si>
     <t>१५०.००</t>
   </si>
   <si>
-    <t>केरा</t>
-  </si>
-  <si>
-    <t>दर्जन</t>
-  </si>
-  <si>
     <t>२९०.००</t>
   </si>
   <si>
@@ -493,33 +493,33 @@
     <t>निबुवा</t>
   </si>
   <si>
+    <t>नासपाती(चाइनिज)</t>
+  </si>
+  <si>
     <t>२६०.००</t>
   </si>
   <si>
-    <t>नासपाती(चाइनिज)</t>
-  </si>
-  <si>
     <t>मेवा(नेपाली)</t>
   </si>
   <si>
     <t>मेवा(भारतीय)</t>
   </si>
   <si>
+    <t>अम्बा</t>
+  </si>
+  <si>
     <t>११३.३३</t>
   </si>
   <si>
-    <t>अम्बा</t>
-  </si>
-  <si>
     <t>लप्सी</t>
   </si>
   <si>
+    <t>उखु</t>
+  </si>
+  <si>
     <t>प्रति वटा</t>
   </si>
   <si>
-    <t>उखु</t>
-  </si>
-  <si>
     <t>स्ट्रबेरी भुईऐसेलु</t>
   </si>
   <si>
@@ -550,15 +550,15 @@
     <t>अदुवा</t>
   </si>
   <si>
+    <t>४२०.००</t>
+  </si>
+  <si>
+    <t>३५४.००</t>
+  </si>
+  <si>
     <t>खु्र्सानी सुकेको</t>
   </si>
   <si>
-    <t>४२०.००</t>
-  </si>
-  <si>
-    <t>३५४.००</t>
-  </si>
-  <si>
     <t>खु्र्सानी हरियो</t>
   </si>
   <si>
@@ -571,33 +571,33 @@
     <t>भेडे खु्र्सानी</t>
   </si>
   <si>
+    <t>लसुन हरियो</t>
+  </si>
+  <si>
     <t>८८.७५</t>
   </si>
   <si>
-    <t>लसुन हरियो</t>
-  </si>
-  <si>
     <t>हरियो धनिया</t>
   </si>
   <si>
     <t>११८.००</t>
   </si>
   <si>
+    <t>३१०.००</t>
+  </si>
+  <si>
     <t>लसुन सुकेको चाइनिज</t>
   </si>
   <si>
     <t>३२०.००</t>
   </si>
   <si>
-    <t>३१०.००</t>
+    <t>लसुन सुकेको नेपाली</t>
   </si>
   <si>
     <t>२८०.००</t>
   </si>
   <si>
-    <t>लसुन सुकेको नेपाली</t>
-  </si>
-  <si>
     <t>ताजा माछा(रहु)</t>
   </si>
   <si>
@@ -613,16 +613,16 @@
     <t>राजा च्याउ</t>
   </si>
   <si>
+    <t>७५२.००</t>
+  </si>
+  <si>
+    <t>सिताके च्याउ</t>
+  </si>
+  <si>
     <t>८००.००</t>
   </si>
   <si>
     <t>७००.००</t>
-  </si>
-  <si>
-    <t>७५२.००</t>
-  </si>
-  <si>
-    <t>सिताके च्याउ</t>
   </si>
 </sst>
 </file>
@@ -934,47 +934,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -994,27 +994,27 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1023,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1066,55 +1066,55 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -1123,67 +1123,67 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1194,113 +1194,113 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -1374,13 +1374,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>63</v>
@@ -1414,36 +1414,36 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
       <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -1454,13 +1454,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1494,19 +1494,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
         <v>46</v>
@@ -1514,19 +1514,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
         <v>46</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
@@ -1549,24 +1549,24 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
         <v>46</v>
@@ -1574,27 +1574,27 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
         <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>75</v>
@@ -1603,24 +1603,24 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
         <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -1634,13 +1634,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
@@ -1649,18 +1649,18 @@
         <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -1674,19 +1674,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>46</v>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>53</v>
@@ -1714,19 +1714,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
         <v>46</v>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
@@ -1769,18 +1769,18 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>58</v>
@@ -1789,38 +1789,38 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>86</v>
       </c>
       <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>53</v>
@@ -1834,33 +1834,33 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>57</v>
@@ -1894,59 +1894,59 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
         <v>22</v>
       </c>
       <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
         <v>97</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>98</v>
-      </c>
-      <c r="F50" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
         <v>103</v>
@@ -1954,19 +1954,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
         <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
         <v>46</v>
@@ -1974,13 +1974,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -2014,13 +2014,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -2034,36 +2034,36 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>108</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
         <v>15</v>
@@ -2074,16 +2074,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
         <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
         <v>57</v>
@@ -2134,19 +2134,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
         <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F61" t="s">
         <v>118</v>
@@ -2154,13 +2154,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
         <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>54</v>
@@ -2169,44 +2169,44 @@
         <v>58</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" t="s">
         <v>120</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>46</v>
@@ -2214,33 +2214,33 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
         <v>126</v>
       </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>123</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>124</v>
-      </c>
-      <c r="F65" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
         <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>57</v>
@@ -2254,39 +2254,39 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" t="s">
         <v>97</v>
-      </c>
-      <c r="E68" t="s">
-        <v>98</v>
       </c>
       <c r="F68" t="s">
         <v>132</v>
@@ -2294,16 +2294,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
         <v>134</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>136</v>
@@ -2323,10 +2323,10 @@
         <v>22</v>
       </c>
       <c r="D70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" t="s">
         <v>97</v>
-      </c>
-      <c r="E70" t="s">
-        <v>98</v>
       </c>
       <c r="F70" t="s">
         <v>132</v>
@@ -2334,36 +2334,36 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
         <v>138</v>
       </c>
-      <c r="C71" t="s">
-        <v>139</v>
-      </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
       </c>
       <c r="F71" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
         <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E72" t="s">
         <v>140</v>
@@ -2374,19 +2374,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
         <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" t="s">
         <v>97</v>
-      </c>
-      <c r="E73" t="s">
-        <v>98</v>
       </c>
       <c r="F73" t="s">
         <v>132</v>
@@ -2394,16 +2394,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
         <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" t="s">
         <v>144</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
         <v>147</v>
@@ -2423,7 +2423,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
         <v>134</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
         <v>149</v>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
         <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
         <v>58</v>
@@ -2469,21 +2469,21 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
         <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
         <v>144</v>
@@ -2494,16 +2494,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
         <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" t="s">
         <v>144</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
         <v>153</v>
@@ -2523,7 +2523,7 @@
         <v>154</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
         <v>144</v>
@@ -2534,13 +2534,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
         <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
         <v>54</v>
@@ -2549,12 +2549,12 @@
         <v>58</v>
       </c>
       <c r="F81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
         <v>156</v>
@@ -2563,24 +2563,24 @@
         <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
         <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
         <v>57</v>
@@ -2594,19 +2594,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
         <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
         <v>46</v>
@@ -2614,39 +2614,39 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E85" t="s">
         <v>135</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
         <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
         <v>46</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
         <v>162</v>
@@ -2669,38 +2669,38 @@
         <v>57</v>
       </c>
       <c r="F87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>64</v>
       </c>
       <c r="E88" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
         <v>165</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>54</v>
@@ -2709,18 +2709,18 @@
         <v>58</v>
       </c>
       <c r="F89" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" t="s">
         <v>167</v>
-      </c>
-      <c r="C90" t="s">
-        <v>166</v>
       </c>
       <c r="D90" t="s">
         <v>53</v>
@@ -2734,27 +2734,27 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
         <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
         <v>171</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
         <v>175</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
         <v>176</v>
@@ -2814,19 +2814,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
         <v>177</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
         <v>148</v>
       </c>
       <c r="E95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F95" t="s">
         <v>64</v>
@@ -2834,33 +2834,33 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
         <v>178</v>
       </c>
-      <c r="C96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" t="s">
         <v>179</v>
-      </c>
-      <c r="E96" t="s">
-        <v>98</v>
-      </c>
-      <c r="F96" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
         <v>181</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
         <v>54</v>
@@ -2869,12 +2869,12 @@
         <v>58</v>
       </c>
       <c r="F97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
         <v>182</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
         <v>183</v>
@@ -2909,18 +2909,18 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
         <v>184</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>54</v>
@@ -2929,18 +2929,18 @@
         <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
         <v>57</v>
@@ -2949,21 +2949,21 @@
         <v>54</v>
       </c>
       <c r="F101" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
         <v>187</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E102" t="s">
         <v>54</v>
@@ -2974,39 +2974,39 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" t="s">
+        <v>97</v>
+      </c>
+      <c r="F103" t="s">
         <v>189</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s">
-        <v>190</v>
-      </c>
-      <c r="E103" t="s">
-        <v>98</v>
-      </c>
-      <c r="F103" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" t="s">
         <v>193</v>
-      </c>
-      <c r="C104" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s">
-        <v>98</v>
-      </c>
-      <c r="E104" t="s">
-        <v>192</v>
       </c>
       <c r="F104" t="s">
         <v>140</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
         <v>194</v>
@@ -3023,18 +3023,18 @@
         <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
         <v>195</v>
@@ -3043,18 +3043,18 @@
         <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E106" t="s">
         <v>135</v>
       </c>
       <c r="F106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
         <v>196</v>
@@ -3066,7 +3066,7 @@
         <v>135</v>
       </c>
       <c r="E107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F107" t="s">
         <v>134</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
         <v>197</v>
@@ -3083,30 +3083,30 @@
         <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E108" t="s">
         <v>63</v>
       </c>
       <c r="F108" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
         <v>198</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E109" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F109" t="s">
         <v>140</v>
@@ -3114,22 +3114,22 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>201</v>
+      </c>
+      <c r="E110" t="s">
         <v>202</v>
       </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
         <v>199</v>
-      </c>
-      <c r="E110" t="s">
-        <v>200</v>
-      </c>
-      <c r="F110" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
